--- a/參與表單.xlsx
+++ b/參與表單.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\IMsenior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B1AF9D-4B11-4B09-815E-19286565FBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C90CE3B-6B25-494A-8682-B07761BE198A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{261F9E42-567E-450A-9DEF-1B861EB498DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t>3月4日</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -88,9 +88,6 @@
     <t>主題討論(一)</t>
   </si>
   <si>
-    <t>主題投票</t>
-  </si>
-  <si>
     <t>第一次會議</t>
   </si>
   <si>
@@ -111,6 +108,14 @@
   </si>
   <si>
     <t>專題報告出席</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題投票(二)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題投票(一)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +123,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,6 +180,34 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF006100"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C0006"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C5700"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="6">
@@ -228,29 +264,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5C8AD1-59F6-4ECB-8D47-312EB2BA2B1B}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -603,197 +642,233 @@
     <col min="2" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="H1" s="5">
+        <v>45726</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="B9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>4</v>
       </c>
     </row>
